--- a/results/mp/deberta/corona/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-masking-0.2/avg_0.003_scores.xlsx
@@ -127,19 +127,19 @@
     <t>safe</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>save</t>
@@ -1566,25 +1566,25 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.691304347826087</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L23">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>71</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1592,25 +1592,25 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.6904761904761905</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1618,13 +1618,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.6888888888888889</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>0.9399999999999999</v>
@@ -1636,7 +1636,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1644,25 +1644,25 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6739130434782609</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L26">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1670,25 +1670,25 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6666666666666666</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="M27">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="N27">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1748,25 +1748,25 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.6128048780487805</v>
+        <v>0.5911764705882353</v>
       </c>
       <c r="L30">
         <v>201</v>
       </c>
       <c r="M30">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="10:17">
